--- a/Fig 1. DDX10 selectively enhances the replication of H1N1 but.xlsx
+++ b/Fig 1. DDX10 selectively enhances the replication of H1N1 but.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Fig 1A" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Fig 1E" sheetId="4" r:id="rId5"/>
     <sheet name="Fig 1F" sheetId="5" r:id="rId6"/>
     <sheet name="Fig 1G, HB206" sheetId="6" r:id="rId7"/>
-    <sheet name="Fig 11G HBJX52" sheetId="8" r:id="rId8"/>
+    <sheet name="Fig 1G HBJX52" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="77">
   <si>
     <t>Cal04/H1N1</t>
   </si>
@@ -258,14 +258,6 @@
   </si>
   <si>
     <t>144/H1N1</t>
-  </si>
-  <si>
-    <t>PFU/mL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Log10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HB20G</t>
@@ -289,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,13 +338,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -583,7 +568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -647,8 +632,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -659,13 +650,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -677,13 +668,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -919,58 +910,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>220981</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123074</xdr:rowOff>
+      <xdr:colOff>68581</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>199888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>586741</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1748</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5455921" y="2706254"/>
-          <a:ext cx="2491740" cy="1715094"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200528</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>119105</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>563881</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>70327</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -987,8 +935,51 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5501640" y="825368"/>
-          <a:ext cx="2834640" cy="1960737"/>
+          <a:off x="5303521" y="3606028"/>
+          <a:ext cx="3230880" cy="1897359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502921</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>167356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>220981</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>29202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5707381" y="1157956"/>
+          <a:ext cx="2766060" cy="1698266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1308,7 +1299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -1333,7 +1324,7 @@
       <c r="B2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:9">
@@ -1349,7 +1340,7 @@
       <c r="E3" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
@@ -1373,7 +1364,7 @@
       <c r="E4" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="2">
         <f>AVERAGE(D4:D6)</f>
         <v>0.33359999999999995</v>
@@ -1396,7 +1387,7 @@
       <c r="D5">
         <v>0.318</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="2"/>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -1416,7 +1407,7 @@
       <c r="D6">
         <v>0.36009999999999998</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="2"/>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -1439,7 +1430,7 @@
       <c r="E7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="2"/>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -1459,7 +1450,7 @@
       <c r="D8">
         <v>0.27389999999999998</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="2"/>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -3471,10 +3462,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="10">
@@ -3488,8 +3479,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="12">
         <v>2</v>
       </c>
@@ -3501,8 +3492,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="13">
         <v>3</v>
       </c>
@@ -3514,8 +3505,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="10">
@@ -3529,8 +3520,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="12">
         <v>2</v>
       </c>
@@ -3542,8 +3533,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="13">
         <v>3</v>
       </c>
@@ -3555,10 +3546,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.6">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="10">
@@ -3572,8 +3563,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6">
-      <c r="A11" s="27"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="12">
         <v>2</v>
       </c>
@@ -3585,8 +3576,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="13">
         <v>3</v>
       </c>
@@ -3598,8 +3589,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="10">
@@ -3613,8 +3604,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="12">
         <v>2</v>
       </c>
@@ -3626,8 +3617,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="13">
         <v>3</v>
       </c>
@@ -3639,10 +3630,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.6">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="10">
@@ -3656,8 +3647,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.6">
-      <c r="A17" s="27"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="12">
         <v>2</v>
       </c>
@@ -3669,8 +3660,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="13">
         <v>3</v>
       </c>
@@ -3682,8 +3673,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="10">
@@ -3697,8 +3688,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="12">
         <v>2</v>
       </c>
@@ -3710,8 +3701,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="34"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="13">
         <v>3</v>
       </c>
@@ -3723,10 +3714,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.6">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="10">
@@ -3740,8 +3731,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.6">
-      <c r="A23" s="27"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="12">
         <v>2</v>
       </c>
@@ -3753,8 +3744,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="13">
         <v>3</v>
       </c>
@@ -3766,8 +3757,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="32" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="10">
@@ -3781,8 +3772,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="12">
         <v>2</v>
       </c>
@@ -3794,8 +3785,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="34"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="13">
         <v>3</v>
       </c>
@@ -3807,10 +3798,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.6">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="10">
@@ -3824,8 +3815,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.6">
-      <c r="A29" s="27"/>
-      <c r="B29" s="30"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="12">
         <v>2</v>
       </c>
@@ -3837,8 +3828,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="13">
         <v>3</v>
       </c>
@@ -3850,8 +3841,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="32" t="s">
+      <c r="A31" s="29"/>
+      <c r="B31" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="10">
@@ -3865,8 +3856,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="12">
         <v>2</v>
       </c>
@@ -3878,8 +3869,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A33" s="28"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="13">
         <v>3</v>
       </c>
@@ -3891,10 +3882,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.6">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="10">
@@ -3908,8 +3899,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.6">
-      <c r="A35" s="27"/>
-      <c r="B35" s="30"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="12">
         <v>2</v>
       </c>
@@ -3921,8 +3912,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A36" s="27"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="13">
         <v>3</v>
       </c>
@@ -3934,8 +3925,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A37" s="27"/>
-      <c r="B37" s="32" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C37" s="10">
@@ -3949,8 +3940,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A38" s="27"/>
-      <c r="B38" s="33"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="12">
         <v>2</v>
       </c>
@@ -3962,8 +3953,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A39" s="28"/>
-      <c r="B39" s="34"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="13">
         <v>3</v>
       </c>
@@ -3976,24 +3967,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4043,10 +4034,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="34" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="17">
@@ -4060,8 +4051,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="18">
         <v>2</v>
       </c>
@@ -4073,8 +4064,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="19">
         <v>3</v>
       </c>
@@ -4086,8 +4077,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="17">
@@ -4103,8 +4094,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="18">
         <v>2</v>
       </c>
@@ -4118,8 +4109,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="19">
         <v>3</v>
       </c>
@@ -4133,10 +4124,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="17">
@@ -4150,8 +4141,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.6">
-      <c r="A12" s="27"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="18">
         <v>2</v>
       </c>
@@ -4163,8 +4154,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="19">
         <v>3</v>
       </c>
@@ -4176,8 +4167,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="32" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="17">
@@ -4193,8 +4184,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="18">
         <v>2</v>
       </c>
@@ -4208,8 +4199,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="19">
         <v>3</v>
       </c>
@@ -4223,10 +4214,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.6">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="17">
@@ -4240,8 +4231,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6">
-      <c r="A18" s="27"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="18">
         <v>2</v>
       </c>
@@ -4253,8 +4244,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="19">
         <v>3</v>
       </c>
@@ -4266,8 +4257,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="17">
@@ -4283,8 +4274,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="18">
         <v>2</v>
       </c>
@@ -4298,8 +4289,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="34"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="19">
         <v>3</v>
       </c>
@@ -4313,10 +4304,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.6">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="17">
@@ -4330,8 +4321,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6">
-      <c r="A24" s="27"/>
-      <c r="B24" s="30"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="18">
         <v>2</v>
       </c>
@@ -4343,8 +4334,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="19">
         <v>3</v>
       </c>
@@ -4356,8 +4347,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="32" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="17">
@@ -4373,8 +4364,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="18">
         <v>2</v>
       </c>
@@ -4388,8 +4379,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="34"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="19">
         <v>3</v>
       </c>
@@ -4403,10 +4394,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.6">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="17">
@@ -4420,8 +4411,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.6">
-      <c r="A30" s="27"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="18">
         <v>2</v>
       </c>
@@ -4433,8 +4424,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="19">
         <v>3</v>
       </c>
@@ -4446,8 +4437,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="32" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="17">
@@ -4463,8 +4454,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="18">
         <v>2</v>
       </c>
@@ -4478,8 +4469,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A34" s="28"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="19">
         <v>3</v>
       </c>
@@ -4493,10 +4484,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.6">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="17">
@@ -4510,8 +4501,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.6">
-      <c r="A36" s="27"/>
-      <c r="B36" s="30"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="18">
         <v>2</v>
       </c>
@@ -4523,8 +4514,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A37" s="27"/>
-      <c r="B37" s="31"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="19">
         <v>3</v>
       </c>
@@ -4536,8 +4527,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A38" s="27"/>
-      <c r="B38" s="32" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="17">
@@ -4553,8 +4544,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A39" s="27"/>
-      <c r="B39" s="33"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="18">
         <v>2</v>
       </c>
@@ -4568,8 +4559,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="34"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="19">
         <v>3</v>
       </c>
@@ -4584,6 +4575,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
@@ -4600,8 +4593,6 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4802,10 +4793,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="34" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="17">
@@ -4819,8 +4810,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="18">
         <v>2</v>
       </c>
@@ -4832,8 +4823,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="19">
         <v>3</v>
       </c>
@@ -4845,8 +4836,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="17">
@@ -4862,8 +4853,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="18">
         <v>2</v>
       </c>
@@ -4877,8 +4868,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="19">
         <v>3</v>
       </c>
@@ -4892,10 +4883,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="17">
@@ -4909,8 +4900,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.6">
-      <c r="A20" s="27"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="18">
         <v>2</v>
       </c>
@@ -4922,8 +4913,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="19">
         <v>3</v>
       </c>
@@ -4935,8 +4926,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="32" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="17">
@@ -4952,8 +4943,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="18">
         <v>2</v>
       </c>
@@ -4967,8 +4958,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A24" s="28"/>
-      <c r="B24" s="34"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="19">
         <v>3</v>
       </c>
@@ -4982,10 +4973,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.6">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="17">
@@ -4999,8 +4990,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.6">
-      <c r="A26" s="27"/>
-      <c r="B26" s="30"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="18">
         <v>2</v>
       </c>
@@ -5012,8 +5003,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="19">
         <v>3</v>
       </c>
@@ -5025,8 +5016,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="32" t="s">
+      <c r="A28" s="29"/>
+      <c r="B28" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="17">
@@ -5042,8 +5033,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="18">
         <v>2</v>
       </c>
@@ -5057,8 +5048,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="34"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="19">
         <v>3</v>
       </c>
@@ -5072,10 +5063,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.6">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="17">
@@ -5089,8 +5080,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.6">
-      <c r="A32" s="27"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="18">
         <v>2</v>
       </c>
@@ -5102,8 +5093,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="19">
         <v>3</v>
       </c>
@@ -5115,8 +5106,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A34" s="27"/>
-      <c r="B34" s="32" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="17">
@@ -5132,8 +5123,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A35" s="27"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="18">
         <v>2</v>
       </c>
@@ -5147,8 +5138,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A36" s="28"/>
-      <c r="B36" s="34"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="19">
         <v>3</v>
       </c>
@@ -5162,10 +5153,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.6">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="17">
@@ -5179,8 +5170,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.6">
-      <c r="A38" s="27"/>
-      <c r="B38" s="30"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="18">
         <v>2</v>
       </c>
@@ -5192,8 +5183,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A39" s="27"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="19">
         <v>3</v>
       </c>
@@ -5205,8 +5196,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A40" s="27"/>
-      <c r="B40" s="32" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="17">
@@ -5222,8 +5213,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A41" s="27"/>
-      <c r="B41" s="33"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="18">
         <v>2</v>
       </c>
@@ -5237,8 +5228,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A42" s="28"/>
-      <c r="B42" s="34"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="19">
         <v>3</v>
       </c>
@@ -5253,12 +5244,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B40:B42"/>
@@ -5268,6 +5253,12 @@
     <mergeCell ref="A31:A36"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5276,10 +5267,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5442,7 +5433,7 @@
       <c r="A12" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="16"/>
@@ -5457,21 +5448,21 @@
       <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>49</v>
+      <c r="D13" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.2" thickBot="1">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="17">
+      <c r="B14" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="25">
         <v>1</v>
       </c>
       <c r="D14" s="11">
@@ -5482,9 +5473,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.2" thickBot="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="18">
+      <c r="A15" s="29"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="26">
         <v>2</v>
       </c>
       <c r="D15" s="11">
@@ -5495,9 +5486,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="19">
+      <c r="A16" s="29"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="27">
         <v>3</v>
       </c>
       <c r="D16" s="11">
@@ -5508,11 +5499,11 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="17">
+      <c r="A17" s="29"/>
+      <c r="B17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="25">
         <v>1</v>
       </c>
       <c r="D17" s="11">
@@ -5525,9 +5516,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="18">
+      <c r="A18" s="29"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="26">
         <v>2</v>
       </c>
       <c r="D18" s="11">
@@ -5540,9 +5531,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="19">
+      <c r="A19" s="30"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="27">
         <v>3</v>
       </c>
       <c r="D19" s="11">
@@ -5555,277 +5546,370 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.6">
-      <c r="A20" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="17">
+      <c r="A20" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="25">
         <v>1</v>
       </c>
       <c r="D20" s="14">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="E20" s="14">
-        <v>950</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.6">
-      <c r="A21" s="27"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="18">
+      <c r="A21" s="29"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="26">
         <v>2</v>
       </c>
       <c r="D21" s="14">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="E21" s="14">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="19">
+      <c r="A22" s="29"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="27">
         <v>3</v>
       </c>
       <c r="D22" s="14">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="E22" s="14">
-        <v>1500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="17">
+      <c r="A23" s="29"/>
+      <c r="B23" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="25">
         <v>1</v>
       </c>
       <c r="D23" s="11">
         <f>LOG10(D20)</f>
-        <v>2.4771212547196626</v>
+        <v>2.0413926851582249</v>
       </c>
       <c r="E23" s="11">
-        <f t="shared" ref="E23" si="3">LOG10(E20)</f>
-        <v>2.9777236052888476</v>
+        <f t="shared" ref="E23:E25" si="3">LOG10(E20)</f>
+        <v>1.954242509439325</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="18">
+      <c r="A24" s="29"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="26">
         <v>2</v>
       </c>
       <c r="D24" s="11">
-        <f t="shared" ref="D24:E25" si="4">LOG10(D21)</f>
-        <v>2.4771212547196626</v>
+        <f t="shared" ref="D24:D25" si="4">LOG10(D21)</f>
+        <v>1.954242509439325</v>
       </c>
       <c r="E24" s="11">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>1.9777236052888478</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A25" s="28"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="19">
+      <c r="A25" s="30"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="27">
         <v>3</v>
       </c>
       <c r="D25" s="11">
         <f t="shared" si="4"/>
-        <v>2.6020599913279625</v>
+        <v>1.8450980400142569</v>
       </c>
       <c r="E25" s="11">
-        <f t="shared" si="4"/>
-        <v>3.1760912590556813</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.6">
-      <c r="A26" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="17">
+      <c r="A26" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="25">
         <v>1</v>
       </c>
       <c r="D26" s="14">
+        <v>300</v>
+      </c>
+      <c r="E26" s="14">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.6">
+      <c r="A27" s="29"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="26">
+        <v>2</v>
+      </c>
+      <c r="D27" s="14">
+        <v>300</v>
+      </c>
+      <c r="E27" s="14">
         <v>1000</v>
       </c>
-      <c r="E26" s="14">
-        <v>8300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.6">
-      <c r="A27" s="27"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="18">
-        <v>2</v>
-      </c>
-      <c r="D27" s="14">
-        <v>750</v>
-      </c>
-      <c r="E27" s="14">
-        <v>9000</v>
-      </c>
     </row>
     <row r="28" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="19">
+      <c r="A28" s="29"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="27">
         <v>3</v>
       </c>
       <c r="D28" s="14">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E28" s="14">
-        <v>7500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="17">
+      <c r="A29" s="29"/>
+      <c r="B29" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="25">
         <v>1</v>
       </c>
       <c r="D29" s="11">
         <f>LOG10(D26)</f>
-        <v>3</v>
+        <v>2.4771212547196626</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" ref="E29" si="5">LOG10(E26)</f>
-        <v>3.9190780923760737</v>
+        <v>2.9777236052888476</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="18">
+      <c r="A30" s="29"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="26">
         <v>2</v>
       </c>
       <c r="D30" s="11">
         <f t="shared" ref="D30:E31" si="6">LOG10(D27)</f>
-        <v>2.8750612633917001</v>
+        <v>2.4771212547196626</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="6"/>
-        <v>3.9542425094393248</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="19">
+      <c r="A31" s="30"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="27">
         <v>3</v>
       </c>
       <c r="D31" s="11">
         <f t="shared" si="6"/>
-        <v>2.8129133566428557</v>
+        <v>2.6020599913279625</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="6"/>
+        <v>3.1760912590556813</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.6">
+      <c r="A32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="25">
+        <v>1</v>
+      </c>
+      <c r="D32" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="14">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.6">
+      <c r="A33" s="29"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="26">
+        <v>2</v>
+      </c>
+      <c r="D33" s="14">
+        <v>750</v>
+      </c>
+      <c r="E33" s="14">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A34" s="29"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="27">
+        <v>3</v>
+      </c>
+      <c r="D34" s="14">
+        <v>650</v>
+      </c>
+      <c r="E34" s="14">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A35" s="29"/>
+      <c r="B35" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="25">
+        <v>1</v>
+      </c>
+      <c r="D35" s="11">
+        <f>LOG10(D32)</f>
+        <v>3</v>
+      </c>
+      <c r="E35" s="11">
+        <f t="shared" ref="E35" si="7">LOG10(E32)</f>
+        <v>3.9190780923760737</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A36" s="29"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="26">
+        <v>2</v>
+      </c>
+      <c r="D36" s="11">
+        <f t="shared" ref="D36:E37" si="8">LOG10(D33)</f>
+        <v>2.8750612633917001</v>
+      </c>
+      <c r="E36" s="11">
+        <f t="shared" si="8"/>
+        <v>3.9542425094393248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A37" s="30"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="27">
+        <v>3</v>
+      </c>
+      <c r="D37" s="11">
+        <f t="shared" si="8"/>
+        <v>2.8129133566428557</v>
+      </c>
+      <c r="E37" s="11">
+        <f t="shared" si="8"/>
         <v>3.8750612633917001</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.6">
-      <c r="A32" s="27" t="s">
+    <row r="38" spans="1:5" ht="15.6">
+      <c r="A38" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="17">
-        <v>1</v>
-      </c>
-      <c r="D32" s="14">
+      <c r="B38" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="25">
+        <v>1</v>
+      </c>
+      <c r="D38" s="14">
         <v>1100</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E38" s="14">
         <v>10500</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.6">
-      <c r="A33" s="27"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="18">
+    <row r="39" spans="1:5" ht="15.6">
+      <c r="A39" s="29"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="26">
         <v>2</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D39" s="14">
         <v>1000</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E39" s="14">
         <v>9500</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A34" s="27"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="19">
+    <row r="40" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A40" s="29"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="27">
         <v>3</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D40" s="14">
         <v>850</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E40" s="14">
         <v>8500</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A35" s="27"/>
-      <c r="B35" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="17">
-        <v>1</v>
-      </c>
-      <c r="D35" s="11">
-        <f t="shared" ref="D35:E37" si="7">LOG10(D32)</f>
+    <row r="41" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A41" s="29"/>
+      <c r="B41" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="25">
+        <v>1</v>
+      </c>
+      <c r="D41" s="11">
+        <f t="shared" ref="D41:E43" si="9">LOG10(D38)</f>
         <v>3.0413926851582249</v>
       </c>
-      <c r="E35" s="11">
-        <f>LOG10(E32)</f>
+      <c r="E41" s="11">
+        <f>LOG10(E38)</f>
         <v>4.0211892990699383</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A36" s="27"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="18">
+    <row r="42" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A42" s="29"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="26">
         <v>2</v>
       </c>
-      <c r="D36" s="11">
-        <f t="shared" si="7"/>
+      <c r="D42" s="11">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="E36" s="11">
-        <f t="shared" si="7"/>
+      <c r="E42" s="11">
+        <f t="shared" si="9"/>
         <v>3.9777236052888476</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A37" s="28"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="19">
+    <row r="43" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A43" s="30"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="27">
         <v>3</v>
       </c>
-      <c r="D37" s="11">
-        <f>LOG10(D34)</f>
+      <c r="D43" s="11">
+        <f>LOG10(D40)</f>
         <v>2.9294189257142929</v>
       </c>
-      <c r="E37" s="11">
-        <f t="shared" si="7"/>
+      <c r="E43" s="11">
+        <f t="shared" si="9"/>
         <v>3.9294189257142929</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B19"/>
@@ -5846,420 +5930,512 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="B3:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A1" s="15" t="s">
+    <row r="3" spans="2:6" ht="16.8" thickBot="1">
+      <c r="B3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A2" s="5" t="s">
+      <c r="C3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A3" s="27" t="s">
+    <row r="5" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B5" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="17">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C5" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="25">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
         <v>1800</v>
       </c>
-      <c r="E3" s="11">
+      <c r="F5" s="11">
         <v>1600</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="18">
+    <row r="6" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B6" s="29"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="26">
         <v>2</v>
       </c>
-      <c r="D4" s="11">
+      <c r="E6" s="11">
         <v>1600</v>
       </c>
-      <c r="E4" s="11">
+      <c r="F6" s="11">
         <v>1600</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="19">
+    <row r="7" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B7" s="29"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="27">
         <v>3</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E7" s="11">
         <v>1900</v>
       </c>
-      <c r="E5" s="11">
+      <c r="F7" s="11">
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="17">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11">
-        <f>LOG10(D3)</f>
+    <row r="8" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B8" s="29"/>
+      <c r="C8" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <f>LOG10(E5)</f>
         <v>3.255272505103306</v>
       </c>
-      <c r="E6" s="11">
-        <f t="shared" ref="E6" si="0">LOG10(E3)</f>
+      <c r="F8" s="11">
+        <f t="shared" ref="F8" si="0">LOG10(F5)</f>
         <v>3.2041199826559246</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="18">
+    <row r="9" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B9" s="29"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="26">
         <v>2</v>
       </c>
-      <c r="D7" s="11">
-        <f t="shared" ref="D7:E8" si="1">LOG10(D4)</f>
+      <c r="E9" s="11">
+        <f t="shared" ref="E9:F10" si="1">LOG10(E6)</f>
         <v>3.2041199826559246</v>
       </c>
-      <c r="E7" s="11">
+      <c r="F9" s="11">
         <f t="shared" si="1"/>
         <v>3.2041199826559246</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="19">
+    <row r="10" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B10" s="30"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="27">
         <v>3</v>
       </c>
-      <c r="D8" s="11">
+      <c r="E10" s="11">
         <f t="shared" si="1"/>
         <v>3.2787536009528289</v>
       </c>
-      <c r="E8" s="11">
+      <c r="F10" s="11">
         <f t="shared" si="1"/>
         <v>3.1760912590556813</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.6">
-      <c r="A9" s="27" t="s">
+    <row r="11" spans="2:6" ht="15.6">
+      <c r="B11" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14">
+        <v>10</v>
+      </c>
+      <c r="F11" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15.6">
+      <c r="B12" s="29"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="26">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14">
+        <v>20</v>
+      </c>
+      <c r="F12" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B13" s="29"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="27">
+        <v>3</v>
+      </c>
+      <c r="E13" s="14">
+        <v>30</v>
+      </c>
+      <c r="F13" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B14" s="29"/>
+      <c r="C14" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="25">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <f>LOG10(E11)</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" ref="F14:F16" si="2">LOG10(F11)</f>
+        <v>1.3010299956639813</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B15" s="29"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="26">
+        <v>2</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" ref="E15:E16" si="3">LOG10(E12)</f>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B16" s="30"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="27">
+        <v>3</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="3"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="2"/>
+        <v>1.3010299956639813</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.6">
+      <c r="B17" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="17">
-        <v>1</v>
-      </c>
-      <c r="D9" s="14">
+      <c r="C17" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="25">
+        <v>1</v>
+      </c>
+      <c r="E17" s="14">
         <v>40000</v>
       </c>
-      <c r="E9" s="14">
+      <c r="F17" s="14">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6">
-      <c r="A10" s="27"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="18">
+    <row r="18" spans="2:6" ht="15.6">
+      <c r="B18" s="29"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="26">
         <v>2</v>
       </c>
-      <c r="D10" s="14">
+      <c r="E18" s="14">
         <v>30000</v>
       </c>
-      <c r="E10" s="14">
+      <c r="F18" s="14">
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="19">
+    <row r="19" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B19" s="29"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="27">
         <v>3</v>
       </c>
-      <c r="D11" s="14">
+      <c r="E19" s="14">
         <v>20000</v>
       </c>
-      <c r="E11" s="14">
+      <c r="F19" s="14">
         <v>20000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="17">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11">
-        <f>LOG10(D9)</f>
+    <row r="20" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B20" s="29"/>
+      <c r="C20" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="25">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11">
+        <f>LOG10(E17)</f>
         <v>4.6020599913279625</v>
       </c>
-      <c r="E12" s="11">
-        <f t="shared" ref="E12" si="2">LOG10(E9)</f>
+      <c r="F20" s="11">
+        <f t="shared" ref="F20" si="4">LOG10(F17)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="18">
+    <row r="21" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B21" s="29"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="26">
         <v>2</v>
       </c>
-      <c r="D13" s="11">
-        <f t="shared" ref="D13:E14" si="3">LOG10(D10)</f>
+      <c r="E21" s="11">
+        <f t="shared" ref="E21:F22" si="5">LOG10(E18)</f>
         <v>4.4771212547196626</v>
       </c>
-      <c r="E13" s="11">
-        <f t="shared" si="3"/>
+      <c r="F21" s="11">
+        <f t="shared" si="5"/>
         <v>4.3010299956639813</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="19">
+    <row r="22" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B22" s="30"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="27">
         <v>3</v>
       </c>
-      <c r="D14" s="11">
-        <f t="shared" si="3"/>
+      <c r="E22" s="11">
+        <f t="shared" si="5"/>
         <v>4.3010299956639813</v>
       </c>
-      <c r="E14" s="11">
-        <f t="shared" si="3"/>
+      <c r="F22" s="11">
+        <f t="shared" si="5"/>
         <v>4.3010299956639813</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6">
-      <c r="A15" s="27" t="s">
+    <row r="23" spans="2:6" ht="15.6">
+      <c r="B23" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="17">
-        <v>1</v>
-      </c>
-      <c r="D15" s="14">
+      <c r="C23" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="25">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14">
         <v>11000000</v>
       </c>
-      <c r="E15" s="14">
+      <c r="F23" s="14">
         <v>7000000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.6">
-      <c r="A16" s="27"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="18">
+    <row r="24" spans="2:6" ht="15.6">
+      <c r="B24" s="29"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="26">
         <v>2</v>
       </c>
-      <c r="D16" s="14">
+      <c r="E24" s="14">
         <v>7000000</v>
       </c>
-      <c r="E16" s="14">
+      <c r="F24" s="14">
         <v>13000000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="19">
+    <row r="25" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B25" s="29"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="27">
         <v>3</v>
       </c>
-      <c r="D17" s="14">
+      <c r="E25" s="14">
         <v>10000000</v>
       </c>
-      <c r="E17" s="14">
+      <c r="F25" s="14">
         <v>15000000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="17">
-        <v>1</v>
-      </c>
-      <c r="D18" s="11">
-        <f>LOG10(D15)</f>
+    <row r="26" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B26" s="29"/>
+      <c r="C26" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="25">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11">
+        <f>LOG10(E23)</f>
         <v>7.0413926851582254</v>
       </c>
-      <c r="E18" s="11">
-        <f t="shared" ref="E18" si="4">LOG10(E15)</f>
+      <c r="F26" s="11">
+        <f t="shared" ref="F26" si="6">LOG10(F23)</f>
         <v>6.8450980400142569</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="18">
+    <row r="27" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B27" s="29"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="26">
         <v>2</v>
       </c>
-      <c r="D19" s="11">
-        <f t="shared" ref="D19:E20" si="5">LOG10(D16)</f>
+      <c r="E27" s="11">
+        <f t="shared" ref="E27:F28" si="7">LOG10(E24)</f>
         <v>6.8450980400142569</v>
       </c>
-      <c r="E19" s="11">
-        <f t="shared" si="5"/>
+      <c r="F27" s="11">
+        <f t="shared" si="7"/>
         <v>7.1139433523068369</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="19">
+    <row r="28" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B28" s="30"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="27">
         <v>3</v>
       </c>
-      <c r="D20" s="11">
-        <f t="shared" si="5"/>
+      <c r="E28" s="11">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="E20" s="11">
-        <f t="shared" si="5"/>
+      <c r="F28" s="11">
+        <f t="shared" si="7"/>
         <v>7.1760912590556813</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6">
-      <c r="A21" s="27" t="s">
+    <row r="29" spans="2:6" ht="15.6">
+      <c r="B29" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="17">
-        <v>1</v>
-      </c>
-      <c r="D21" s="14">
+      <c r="C29" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="25">
+        <v>1</v>
+      </c>
+      <c r="E29" s="14">
         <v>80000000</v>
       </c>
-      <c r="E21" s="14">
+      <c r="F29" s="14">
         <v>190000000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.6">
-      <c r="A22" s="27"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="18">
+    <row r="30" spans="2:6" ht="15.6">
+      <c r="B30" s="29"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="26">
         <v>2</v>
       </c>
-      <c r="D22" s="14">
+      <c r="E30" s="14">
         <v>80000000</v>
       </c>
-      <c r="E22" s="14">
+      <c r="F30" s="14">
         <v>170000000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="19">
+    <row r="31" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B31" s="29"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="27">
         <v>3</v>
       </c>
-      <c r="D23" s="14">
+      <c r="E31" s="14">
         <v>90000000</v>
       </c>
-      <c r="E23" s="14">
+      <c r="F31" s="14">
         <v>90000000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="17">
-        <v>1</v>
-      </c>
-      <c r="D24" s="11">
-        <f t="shared" ref="D24:E26" si="6">LOG10(D21)</f>
+    <row r="32" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B32" s="29"/>
+      <c r="C32" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="25">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11">
+        <f t="shared" ref="E32:F34" si="8">LOG10(E29)</f>
         <v>7.9030899869919438</v>
       </c>
-      <c r="E24" s="11">
-        <f>LOG10(E21)</f>
+      <c r="F32" s="11">
+        <f>LOG10(F29)</f>
         <v>8.2787536009528289</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="18">
+    <row r="33" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B33" s="29"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="26">
         <v>2</v>
       </c>
-      <c r="D25" s="11">
-        <f t="shared" si="6"/>
+      <c r="E33" s="11">
+        <f t="shared" si="8"/>
         <v>7.9030899869919438</v>
       </c>
-      <c r="E25" s="11">
-        <f t="shared" si="6"/>
+      <c r="F33" s="11">
+        <f t="shared" si="8"/>
         <v>8.2304489213782741</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A26" s="28"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="19">
+    <row r="34" spans="2:6" ht="16.2" thickBot="1">
+      <c r="B34" s="30"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="27">
         <v>3</v>
       </c>
-      <c r="D26" s="11">
-        <f>LOG10(D23)</f>
+      <c r="E34" s="11">
+        <f>LOG10(E31)</f>
         <v>7.9542425094393252</v>
       </c>
-      <c r="E26" s="11">
-        <f t="shared" si="6"/>
+      <c r="F34" s="11">
+        <f t="shared" si="8"/>
         <v>7.9542425094393252</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
+  <mergeCells count="15">
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6287,7 +6463,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -6311,11 +6487,11 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>76</v>
+      <c r="B4" s="34" t="s">
+        <v>74</v>
       </c>
       <c r="C4" s="17">
         <v>1</v>
@@ -6329,8 +6505,8 @@
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="18">
         <v>2</v>
       </c>
@@ -6343,8 +6519,8 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="19">
         <v>3</v>
       </c>
@@ -6357,9 +6533,9 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="32" t="s">
-        <v>77</v>
+      <c r="A7" s="29"/>
+      <c r="B7" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="C7" s="17">
         <v>1</v>
@@ -6375,8 +6551,8 @@
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="18">
         <v>2</v>
       </c>
@@ -6391,8 +6567,8 @@
       <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="19">
         <v>3</v>
       </c>
@@ -6407,11 +6583,11 @@
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" ht="15.6">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>76</v>
+      <c r="B10" s="37" t="s">
+        <v>74</v>
       </c>
       <c r="C10" s="17">
         <v>1</v>
@@ -6425,8 +6601,8 @@
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="15.6">
-      <c r="A11" s="27"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="18">
         <v>2</v>
       </c>
@@ -6439,8 +6615,8 @@
       <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="19">
         <v>3</v>
       </c>
@@ -6453,9 +6629,9 @@
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="32" t="s">
-        <v>77</v>
+      <c r="A13" s="29"/>
+      <c r="B13" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="C13" s="17">
         <v>1</v>
@@ -6471,8 +6647,8 @@
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="18">
         <v>2</v>
       </c>
@@ -6487,8 +6663,8 @@
       <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="19">
         <v>3</v>
       </c>
@@ -6503,11 +6679,11 @@
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="15.6">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>76</v>
+      <c r="B16" s="37" t="s">
+        <v>74</v>
       </c>
       <c r="C16" s="17">
         <v>1</v>
@@ -6521,8 +6697,8 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" ht="15.6">
-      <c r="A17" s="27"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="18">
         <v>2</v>
       </c>
@@ -6535,8 +6711,8 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="19">
         <v>3</v>
       </c>
@@ -6549,9 +6725,9 @@
       <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="32" t="s">
-        <v>77</v>
+      <c r="A19" s="29"/>
+      <c r="B19" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="C19" s="17">
         <v>1</v>
@@ -6567,8 +6743,8 @@
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="18">
         <v>2</v>
       </c>
@@ -6583,8 +6759,8 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="34"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="19">
         <v>3</v>
       </c>
@@ -6599,11 +6775,11 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="15.6">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>76</v>
+      <c r="B22" s="37" t="s">
+        <v>74</v>
       </c>
       <c r="C22" s="17">
         <v>1</v>
@@ -6617,8 +6793,8 @@
       <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" ht="15.6">
-      <c r="A23" s="27"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="18">
         <v>2</v>
       </c>
@@ -6631,8 +6807,8 @@
       <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="19">
         <v>3</v>
       </c>
@@ -6645,9 +6821,9 @@
       <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="32" t="s">
-        <v>77</v>
+      <c r="A25" s="29"/>
+      <c r="B25" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="C25" s="17">
         <v>1</v>
@@ -6663,8 +6839,8 @@
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="18">
         <v>2</v>
       </c>
@@ -6679,8 +6855,8 @@
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="34"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="19">
         <v>3</v>
       </c>
@@ -6696,18 +6872,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
